--- a/05.cleaning/04.project.names/rev.02/project.names.from.invoicing.new.query.xlsx
+++ b/05.cleaning/04.project.names/rev.02/project.names.from.invoicing.new.query.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rowadmodern-my.sharepoint.com/personal/omar_essam_rowad-rme_com/Documents/x004 Data Science/03.rme.db/00.repo/rme.db/05.cleaning/04.project.names/rev.02/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\OneDrive - Rowad Modern Engineering\x004 Data Science\03.rme.db\00.repo\rme.db\05.cleaning\04.project.names\rev.02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{16A8CFD0-1522-4E0A-B151-2755BDCA250F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FAF3A2D-32F1-4CA5-ACEC-78F22DCCDB7D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7839B86B-7295-4E6D-917A-DBA481AC51BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1D127D7E-C301-4C21-B327-AAC3D45B2003}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="991">
   <si>
     <t>PROJECT_NUMBER</t>
   </si>
@@ -3009,6 +3009,12 @@
   </si>
   <si>
     <t>6TH October tunnel</t>
+  </si>
+  <si>
+    <t>cote</t>
+  </si>
+  <si>
+    <t>com</t>
   </si>
 </sst>
 </file>
@@ -9992,11 +9998,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F994A856-E08B-46D3-99CF-87024D6DEB24}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C596"/>
+  <dimension ref="A1:D596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B430" sqref="A430:B430"/>
+      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10034,7 +10040,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>146</v>
       </c>
@@ -10058,7 +10064,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>272</v>
       </c>
@@ -10106,7 +10112,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>861</v>
       </c>
@@ -10162,7 +10168,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>790</v>
       </c>
@@ -10178,7 +10184,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>865</v>
       </c>
@@ -10285,7 +10291,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>388</v>
       </c>
@@ -10293,7 +10299,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>317</v>
       </c>
@@ -10309,7 +10315,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>390</v>
       </c>
@@ -10317,7 +10323,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>374</v>
       </c>
@@ -10397,7 +10403,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>555</v>
       </c>
@@ -10496,7 +10502,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>255</v>
       </c>
@@ -10552,7 +10558,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>247</v>
       </c>
@@ -10643,7 +10649,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>755</v>
       </c>
@@ -10707,7 +10713,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>787</v>
       </c>
@@ -10715,7 +10721,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>335</v>
       </c>
@@ -10779,7 +10785,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>872</v>
       </c>
@@ -10931,7 +10937,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>797</v>
       </c>
@@ -10987,7 +10993,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>114</v>
       </c>
@@ -11019,7 +11025,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>332</v>
       </c>
@@ -11107,7 +11113,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
         <v>171</v>
       </c>
@@ -11166,7 +11172,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>298</v>
       </c>
@@ -11222,7 +11228,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>259</v>
       </c>
@@ -11230,7 +11236,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>123</v>
       </c>
@@ -11318,7 +11324,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>488</v>
       </c>
@@ -11390,7 +11396,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
         <v>437</v>
       </c>
@@ -11494,7 +11500,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
         <v>102</v>
       </c>
@@ -11529,7 +11535,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
         <v>453</v>
       </c>
@@ -11561,7 +11567,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
         <v>365</v>
       </c>
@@ -11585,7 +11591,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>398</v>
       </c>
@@ -11593,7 +11599,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
         <v>584</v>
       </c>
@@ -11601,7 +11607,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
         <v>737</v>
       </c>
@@ -11617,7 +11623,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
         <v>240</v>
       </c>
@@ -11633,7 +11639,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
         <v>469</v>
       </c>
@@ -11641,7 +11647,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
         <v>204</v>
       </c>
@@ -11649,7 +11655,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
         <v>671</v>
       </c>
@@ -11657,7 +11663,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
         <v>371</v>
       </c>
@@ -11665,7 +11671,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
         <v>261</v>
       </c>
@@ -11705,7 +11711,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>735</v>
       </c>
@@ -11849,7 +11855,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
         <v>810</v>
       </c>
@@ -11857,7 +11863,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
         <v>455</v>
       </c>
@@ -11865,7 +11871,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
         <v>894</v>
       </c>
@@ -11881,7 +11887,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
         <v>343</v>
       </c>
@@ -11969,7 +11975,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
         <v>919</v>
       </c>
@@ -12065,7 +12071,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
         <v>126</v>
       </c>
@@ -12073,7 +12079,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
         <v>599</v>
       </c>
@@ -12145,7 +12151,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
         <v>479</v>
       </c>
@@ -12153,7 +12159,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
         <v>473</v>
       </c>
@@ -12161,7 +12167,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
         <v>762</v>
       </c>
@@ -12487,7 +12493,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="4" t="s">
         <v>795</v>
       </c>
@@ -12495,15 +12501,18 @@
         <v>794</v>
       </c>
     </row>
-    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="4" t="s">
         <v>549</v>
       </c>
       <c r="B306" s="4" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D306" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="4" t="s">
         <v>835</v>
       </c>
@@ -12511,7 +12520,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="4" t="s">
         <v>955</v>
       </c>
@@ -12519,7 +12528,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="4" t="s">
         <v>844</v>
       </c>
@@ -12527,7 +12536,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
         <v>64</v>
       </c>
@@ -12535,7 +12544,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="4" t="s">
         <v>4</v>
       </c>
@@ -12543,7 +12552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="4" t="s">
         <v>287</v>
       </c>
@@ -12551,7 +12560,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="4" t="s">
         <v>155</v>
       </c>
@@ -12559,7 +12568,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="4" t="s">
         <v>153</v>
       </c>
@@ -12567,7 +12576,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="4" t="s">
         <v>226</v>
       </c>
@@ -12575,7 +12584,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="4" t="s">
         <v>157</v>
       </c>
@@ -12583,15 +12592,18 @@
         <v>5002</v>
       </c>
     </row>
-    <row r="317" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="4" t="s">
         <v>687</v>
       </c>
       <c r="B317" s="4" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D317" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="4" t="s">
         <v>265</v>
       </c>
@@ -12602,7 +12614,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="4" t="s">
         <v>640</v>
       </c>
@@ -12610,7 +12622,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="4" t="s">
         <v>442</v>
       </c>
@@ -12778,7 +12790,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="341" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" s="4" t="s">
         <v>308</v>
       </c>
@@ -12786,7 +12798,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="342" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" s="4" t="s">
         <v>669</v>
       </c>
@@ -12802,7 +12814,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="344" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" s="4" t="s">
         <v>423</v>
       </c>
@@ -12810,7 +12822,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="345" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" s="4" t="s">
         <v>434</v>
       </c>
@@ -12874,7 +12886,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="353" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" s="4" t="s">
         <v>356</v>
       </c>
@@ -12914,7 +12926,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="358" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" s="4" t="s">
         <v>197</v>
       </c>
@@ -12922,7 +12934,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="359" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" s="4" t="s">
         <v>676</v>
       </c>
@@ -12930,7 +12942,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="360" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" s="4" t="s">
         <v>943</v>
       </c>
@@ -12962,7 +12974,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="364" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" s="4" t="s">
         <v>214</v>
       </c>
@@ -12970,7 +12982,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" s="4" t="s">
         <v>627</v>
       </c>
@@ -13245,7 +13257,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" s="4" t="s">
         <v>194</v>
       </c>
@@ -13640,7 +13652,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="448" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" s="4" t="s">
         <v>165</v>
       </c>
@@ -13664,7 +13676,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="451" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" s="4" t="s">
         <v>409</v>
       </c>
@@ -13704,7 +13716,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="456" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" s="4" t="s">
         <v>723</v>
       </c>
@@ -13848,7 +13860,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="474" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" s="4" t="s">
         <v>212</v>
       </c>
@@ -13856,7 +13868,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="475" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" s="4" t="s">
         <v>625</v>
       </c>
@@ -13864,7 +13876,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="476" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" s="4" t="s">
         <v>369</v>
       </c>
@@ -13872,7 +13884,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="477" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" s="4" t="s">
         <v>450</v>
       </c>
@@ -13984,7 +13996,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="491" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" s="4" t="s">
         <v>643</v>
       </c>
@@ -13992,7 +14004,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="492" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" s="4" t="s">
         <v>121</v>
       </c>
@@ -14008,7 +14020,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="494" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" s="4" t="s">
         <v>582</v>
       </c>
@@ -14016,7 +14028,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="495" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" s="4" t="s">
         <v>562</v>
       </c>
@@ -14040,7 +14052,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="498" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" s="4" t="s">
         <v>174</v>
       </c>
@@ -14112,7 +14124,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="507" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" s="4" t="s">
         <v>595</v>
       </c>
@@ -14144,7 +14156,7 @@
         <v>63006</v>
       </c>
     </row>
-    <row r="511" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" s="4" t="s">
         <v>337</v>
       </c>
@@ -14280,7 +14292,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="528" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" s="4" t="s">
         <v>752</v>
       </c>
@@ -14336,7 +14348,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="535" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535" s="4" t="s">
         <v>296</v>
       </c>
@@ -14680,7 +14692,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="578" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A578" s="4" t="s">
         <v>192</v>
       </c>
@@ -14715,7 +14727,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="582" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582" s="4" t="s">
         <v>440</v>
       </c>
@@ -14837,9 +14849,85 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:C596" xr:uid="{F994A856-E08B-46D3-99CF-87024D6DEB24}">
-    <filterColumn colId="0">
+    <filterColumn colId="1">
       <filters>
-        <filter val="Faculty of Medicine"/>
+        <filter val="CD0001"/>
+        <filter val="D0005"/>
+        <filter val="D0006"/>
+        <filter val="D0007"/>
+        <filter val="D0008"/>
+        <filter val="D0009"/>
+        <filter val="D0010"/>
+        <filter val="D0011"/>
+        <filter val="D0012"/>
+        <filter val="D0014"/>
+        <filter val="D0015"/>
+        <filter val="D0017"/>
+        <filter val="D0018"/>
+        <filter val="D0019"/>
+        <filter val="D0020"/>
+        <filter val="D0021"/>
+        <filter val="D0022"/>
+        <filter val="D0023"/>
+        <filter val="D0024"/>
+        <filter val="D0025"/>
+        <filter val="D0027"/>
+        <filter val="D0028"/>
+        <filter val="D0029"/>
+        <filter val="D0030"/>
+        <filter val="D0031"/>
+        <filter val="D0033"/>
+        <filter val="D0034"/>
+        <filter val="D0035"/>
+        <filter val="D0036"/>
+        <filter val="D0037"/>
+        <filter val="D0038"/>
+        <filter val="D0040"/>
+        <filter val="D0041"/>
+        <filter val="D0042"/>
+        <filter val="D0043"/>
+        <filter val="D0044"/>
+        <filter val="D0045"/>
+        <filter val="D0046"/>
+        <filter val="D0047"/>
+        <filter val="D0048"/>
+        <filter val="D0049"/>
+        <filter val="D0050"/>
+        <filter val="D0051"/>
+        <filter val="D0052"/>
+        <filter val="D0053"/>
+        <filter val="D0054"/>
+        <filter val="D0055"/>
+        <filter val="D0056"/>
+        <filter val="D0057"/>
+        <filter val="D0058"/>
+        <filter val="D0059"/>
+        <filter val="D0061"/>
+        <filter val="D0062"/>
+        <filter val="D0064"/>
+        <filter val="D0065"/>
+        <filter val="D0066"/>
+        <filter val="D0067"/>
+        <filter val="D0068"/>
+        <filter val="D0069"/>
+        <filter val="D0070"/>
+        <filter val="D0071"/>
+        <filter val="D0072"/>
+        <filter val="D0073"/>
+        <filter val="D0074"/>
+        <filter val="D0076"/>
+        <filter val="D0077"/>
+        <filter val="D0078"/>
+        <filter val="D0079"/>
+        <filter val="D0080"/>
+        <filter val="D0081"/>
+        <filter val="D0082"/>
+        <filter val="D0083"/>
+        <filter val="D0084"/>
+        <filter val="D0085"/>
+        <filter val="D0086"/>
+        <filter val="D0087"/>
+        <filter val="D0088"/>
       </filters>
     </filterColumn>
   </autoFilter>
